--- a/biology/Botanique/Liste_des_espèces_du_genre_Armillaria/Liste_des_espèces_du_genre_Armillaria.xlsx
+++ b/biology/Botanique/Liste_des_espèces_du_genre_Armillaria/Liste_des_espèces_du_genre_Armillaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Armillaria</t>
+          <t>Liste_des_espèces_du_genre_Armillaria</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,22 +490,24 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Armillaria est un genre de champignons communément appelé « armillaires ». 
-D'abord traité par Elias Magnus Fries en 1821, et plus tard assigné au rang générique par Friedrich Staude en 1857[1], le genre Armillaria est classé dans la famille des Physalacriaceae, de l'ordre des Agaricales, les champignons lamellés[2].
-La plupart des espèces d'Armillaria sont saprophytes et vivent principalement dans le bois mort, mais certaines sont des parasites qui peuvent provoquer des pourridiés chez plus de 600 espèces de plantes ligneuses[3].
-Certaines espèces d'Armillaria forment des mycorhizes avec les orchidées[4].  
-D'autres, telles qu'Armillaria gallica, Armillaria mellea et Armillaria tabescens, sont bioluminescentes[5].
+D'abord traité par Elias Magnus Fries en 1821, et plus tard assigné au rang générique par Friedrich Staude en 1857, le genre Armillaria est classé dans la famille des Physalacriaceae, de l'ordre des Agaricales, les champignons lamellés.
+La plupart des espèces d'Armillaria sont saprophytes et vivent principalement dans le bois mort, mais certaines sont des parasites qui peuvent provoquer des pourridiés chez plus de 600 espèces de plantes ligneuses.
+Certaines espèces d'Armillaria forment des mycorhizes avec les orchidées.  
+D'autres, telles qu'Armillaria gallica, Armillaria mellea et Armillaria tabescens, sont bioluminescentes.
 Les espèces d'Armillaria forment des sporophores charnus, à spores blanches, avec un voile cotonneux ou membraneux qui forme généralement un anneau distinct sur le pied. Ces champignons à port cespiteux apparaissent généralement à l'automne en touffes nombreuses sur le bois à la base des troncs ou sur les racines. 
-Les espèces d'Armillaria produisent des rhizomorphes (pseudoracines constituées d'agrégations d'hyphes), qui peuvent former des réseaux souterrains massifs et durables. La croissance des réseaux de rhizomorphes permet la propagation du champignon d'arbre en arbre, même si un contact direct entre plantes malades et plantes saines est impossible[6].
+Les espèces d'Armillaria produisent des rhizomorphes (pseudoracines constituées d'agrégations d'hyphes), qui peuvent former des réseaux souterrains massifs et durables. La croissance des réseaux de rhizomorphes permet la propagation du champignon d'arbre en arbre, même si un contact direct entre plantes malades et plantes saines est impossible.
 Le genre a servi un temps de taxon poubelle pour de nombreux champignons agarics caractérisés par une sporée blanche, des lames adhérentes au stipe et la présence d'un anneau. Du fait d'interprétations divergentes sur les limites du genre, plus de 270 espèces et variétés ont été placées dans le genre Armillaria ou son synonyme, Armillariella.
-Une étude globale de Tom Volk et Harold Burdsall a évalué en 1995 tous les épithètes qui ont été utilisées dans les genres Armillaria ou Armillariella. Elle a montré qu'environ 40 espèces appartiennent au genre Armillaria  stricto sensu (au sens strict) ; les noms restants appartiennent à des espèces qui sont réparties dans 43 autres genres fongiques modernes[7].
+Une étude globale de Tom Volk et Harold Burdsall a évalué en 1995 tous les épithètes qui ont été utilisées dans les genres Armillaria ou Armillariella. Elle a montré qu'environ 40 espèces appartiennent au genre Armillaria  stricto sensu (au sens strict) ; les noms restants appartiennent à des espèces qui sont réparties dans 43 autres genres fongiques modernes.
 De nombreuses espèces sont difficiles ou impossibles à distinguer les unes des autres en utilisant les caractéristiques observables ; des tests d'incompatibilité en laboratoire sont souvent utilisés sur des cultures pures afin de déterminer les espèces de manière fiable.
 En raison des difficultés posées par l'identification de routine des espèces, le recours au séquençage de l'ADN et à des approches phylogénétiques est devenu une méthode standard pour aider à clarifier les relations entre espèces. 
 Celles-ci diffèrent par leur répartition géographique et leur position écologique, par leur spécificité d'hôte, par leurs caractéristiques microscopiques et macroscopiques, et aussi par leur agressivité dans la colonisation du bois des hôtes ligneux. 
-La liste des espèces d'Armillaria présentée ci-dessous  est basée sur les présentations taxinomiques établies par Volk et Burdsall en 1995[8], David Pegler en 2000[9] et sur des rapports d'espèces nouvelles publiés depuis lors[10],[11],[12].
+La liste des espèces d'Armillaria présentée ci-dessous  est basée sur les présentations taxinomiques établies par Volk et Burdsall en 1995, David Pegler en 2000 et sur des rapports d'espèces nouvelles publiés depuis lors.
 </t>
         </is>
       </c>
@@ -506,7 +518,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Armillaria</t>
+          <t>Liste_des_espèces_du_genre_Armillaria</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -524,7 +536,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Légende du tableau des espèces ci-dessous
 </t>
